--- a/src/test/resources/TestDriver/TestIFRS9/ActivityData.xlsx
+++ b/src/test/resources/TestDriver/TestIFRS9/ActivityData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\TestIFRS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9923F5-2B00-42FE-A2C7-BBF13272C83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87141599-328D-4721-8AEF-8890FA4231C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>PostingDate</t>
   </si>
@@ -234,9 +234,6 @@
     <t>L007</t>
   </si>
   <si>
-    <t>ExtimationDate</t>
-  </si>
-  <si>
     <t>RiskLevel</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>Risk Level 4</t>
-  </si>
-  <si>
-    <t>EstimationDate</t>
   </si>
   <si>
     <t>CollateralHaircut</t>
@@ -367,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -381,11 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -665,7 +657,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1051,10 +1043,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,73 +1057,58 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1145,10 +1122,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,25 +1135,19 @@
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B2" s="19">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>0.3</v>
       </c>
-      <c r="C2" s="19">
+      <c r="B2" s="17">
         <v>0.05</v>
       </c>
     </row>
